--- a/关联分析表/地质参数参数关联分析结果.xlsx
+++ b/关联分析表/地质参数参数关联分析结果.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>编号</t>
   </si>
@@ -30,18 +30,10 @@
 泥质含量为0~10%，含油饱和度为10%~20%，油层</t>
   </si>
   <si>
-    <r>
-      <t>泥质含量为0~10%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，含油饱和度为</t>
-    </r>
+    <t>含油饱和度为0~10%，孔隙度为20%~30%， 
+泥质含量为10%~20%，渗透率为300~800mD，水层</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -49,24 +41,6 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>10%~20%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，油层</t>
-    </r>
-  </si>
-  <si>
-    <t>含油饱和度为0~10%，孔隙度为20%~30%， 
-泥质含量为10%~20%，渗透率为300~800mD，水层</t>
-  </si>
-  <si>
-    <r>
       <t>泥质含量为10%~20%</t>
     </r>
     <r>
@@ -103,12 +77,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,7 +112,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,37 +180,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,14 +234,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,60 +242,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,31 +256,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,151 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,30 +474,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -561,17 +504,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,156 +541,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -761,9 +729,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1088,7 +1059,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
@@ -1097,122 +1068,113 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="24" customHeight="1" spans="1:2">
-      <c r="A2" s="3">
+    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" ht="42" customHeight="1" spans="1:2">
-      <c r="A4" s="4">
+    <row r="3" s="1" customFormat="1" ht="31.2" spans="1:2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+    <row r="4" ht="42" customHeight="1" spans="1:2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="56" customHeight="1" spans="1:2">
-      <c r="A6" s="4">
-        <v>3</v>
+    <row r="5" ht="67" customHeight="1" spans="1:2">
+      <c r="A5" s="5">
+        <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="6" ht="56" customHeight="1"/>
+    <row r="7" hidden="1"/>
     <row r="8" spans="1:2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
+  <mergeCells count="16">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
@@ -1221,9 +1183,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
